--- a/Data/EC/NIT-8040080447.xlsx
+++ b/Data/EC/NIT-8040080447.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9296A754-F573-4C21-B8B4-DDAC05C2DDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23AC4079-1F26-4671-8ED8-D7427DC7C0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D6C986A2-6EA6-4F64-9006-B42189FE7B5F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8D166A51-7B64-4DE6-9889-C08F441446C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,103 +65,112 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047399467</t>
+  </si>
+  <si>
+    <t>LUZANA BARRIOS MOSCOTE</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1143371488</t>
+  </si>
+  <si>
+    <t>JUAN ARGEMIRO GARCIA LLERENA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
     <t>1045690953</t>
   </si>
   <si>
     <t>ANNY LUZ CASTELLANOS COLLAZOS</t>
   </si>
   <si>
+    <t>1904</t>
+  </si>
+  <si>
     <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1047399467</t>
-  </si>
-  <si>
-    <t>LUZANA BARRIOS MOSCOTE</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -575,7 +584,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE158EE2-D73D-DB69-FA4D-A4A67C0AEEA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB55F454-98D9-6D41-1D5A-F988096DAEDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -926,8 +935,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB47022A-E5A1-473B-A2A8-2AA6D0F2C6CF}">
-  <dimension ref="B2:J50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4C4282-01AC-45BE-8EDB-3B65D30FB5E8}">
+  <dimension ref="B2:J51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -951,7 +960,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -996,7 +1005,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1028,12 +1037,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3475024</v>
+        <v>3563024</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1044,17 +1053,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F13" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1081,13 +1090,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1104,10 +1113,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>16224</v>
+        <v>17440</v>
       </c>
       <c r="G16" s="18">
-        <v>1014000</v>
+        <v>3270000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1127,10 +1136,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>40560</v>
+        <v>130800</v>
       </c>
       <c r="G17" s="18">
-        <v>1014000</v>
+        <v>3270000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1141,13 +1150,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>130800</v>
@@ -1164,13 +1173,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>130800</v>
@@ -1187,13 +1196,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>130800</v>
@@ -1210,13 +1219,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>130800</v>
@@ -1233,13 +1242,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>130800</v>
@@ -1256,13 +1265,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>130800</v>
@@ -1279,13 +1288,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>130800</v>
@@ -1302,13 +1311,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>130800</v>
@@ -1325,13 +1334,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>130800</v>
@@ -1348,13 +1357,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>130800</v>
@@ -1371,13 +1380,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>130800</v>
@@ -1394,13 +1403,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>130800</v>
@@ -1417,13 +1426,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>130800</v>
@@ -1440,13 +1449,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>130800</v>
@@ -1463,13 +1472,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>130800</v>
@@ -1486,13 +1495,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>130800</v>
@@ -1509,13 +1518,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>130800</v>
@@ -1532,13 +1541,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>130800</v>
@@ -1555,13 +1564,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>130800</v>
@@ -1578,13 +1587,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>130800</v>
@@ -1601,13 +1610,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>130800</v>
@@ -1624,13 +1633,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>130800</v>
@@ -1647,13 +1656,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>130800</v>
@@ -1670,13 +1679,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>130800</v>
@@ -1693,13 +1702,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>130800</v>
@@ -1716,75 +1725,98 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>40</v>
       </c>
       <c r="F43" s="18">
-        <v>130800</v>
+        <v>88000</v>
       </c>
       <c r="G43" s="18">
-        <v>3270000</v>
+        <v>994000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="22" t="s">
+      <c r="B44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="24">
-        <v>17440</v>
-      </c>
-      <c r="G44" s="24">
-        <v>3270000</v>
-      </c>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="26"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="H49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="D44" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="18">
+        <v>40560</v>
+      </c>
+      <c r="G44" s="18">
+        <v>1014000</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="24">
+        <v>16224</v>
+      </c>
+      <c r="G45" s="24">
+        <v>1014000</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="26"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C50" s="32"/>
       <c r="H50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="32"/>
+      <c r="H51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B51:C51"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="H51:J51"/>
     <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H49:J49"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
